--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26EA7B-059D-4912-934D-37E361203865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A0AC2-893A-4B78-A905-37E381FD17BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Start Date</t>
   </si>
@@ -170,6 +170,87 @@
   </si>
   <si>
     <t>https://cloud4.rpsconsulting.in/console/#</t>
+  </si>
+  <si>
+    <t>174.129.73.140</t>
+  </si>
+  <si>
+    <t>52.91.55.48</t>
+  </si>
+  <si>
+    <t>34.229.155.235</t>
+  </si>
+  <si>
+    <t>98.80.9.40</t>
+  </si>
+  <si>
+    <t>34.202.230.107</t>
+  </si>
+  <si>
+    <t>52.55.213.186</t>
+  </si>
+  <si>
+    <t>54.242.108.128</t>
+  </si>
+  <si>
+    <t>34.236.146.139</t>
+  </si>
+  <si>
+    <t>34.229.57.121</t>
+  </si>
+  <si>
+    <t>98.84.127.232</t>
+  </si>
+  <si>
+    <t>54.221.6.74</t>
+  </si>
+  <si>
+    <t>34.228.155.29</t>
+  </si>
+  <si>
+    <t>3.208.12.191</t>
+  </si>
+  <si>
+    <t>13.220.50.93</t>
+  </si>
+  <si>
+    <t>100.26.111.168</t>
+  </si>
+  <si>
+    <t>18.208.220.175</t>
+  </si>
+  <si>
+    <t>34.224.93.22</t>
+  </si>
+  <si>
+    <t>54.227.96.203</t>
+  </si>
+  <si>
+    <t>23.20.122.36</t>
+  </si>
+  <si>
+    <t>3.91.66.211</t>
+  </si>
+  <si>
+    <t>3.94.115.94</t>
+  </si>
+  <si>
+    <t>34.234.63.205</t>
+  </si>
+  <si>
+    <t>54.90.72.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.167.22.31  </t>
+  </si>
+  <si>
+    <t>IP1</t>
+  </si>
+  <si>
+    <t>IP2</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
   </si>
 </sst>
 </file>
@@ -617,12 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,6 +707,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -928,10 +1009,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -1213,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
-  <dimension ref="B8:E23"/>
+  <dimension ref="B8:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,167 +1305,300 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="F11" s="32"/>
+      <c r="G11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="32" t="s">
         <v>34</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A0AC2-893A-4B78-A905-37E381FD17BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEADD5-831A-48FD-8E17-139E8E093E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Start Date</t>
   </si>
@@ -172,78 +172,6 @@
     <t>https://cloud4.rpsconsulting.in/console/#</t>
   </si>
   <si>
-    <t>174.129.73.140</t>
-  </si>
-  <si>
-    <t>52.91.55.48</t>
-  </si>
-  <si>
-    <t>34.229.155.235</t>
-  </si>
-  <si>
-    <t>98.80.9.40</t>
-  </si>
-  <si>
-    <t>34.202.230.107</t>
-  </si>
-  <si>
-    <t>52.55.213.186</t>
-  </si>
-  <si>
-    <t>54.242.108.128</t>
-  </si>
-  <si>
-    <t>34.236.146.139</t>
-  </si>
-  <si>
-    <t>34.229.57.121</t>
-  </si>
-  <si>
-    <t>98.84.127.232</t>
-  </si>
-  <si>
-    <t>54.221.6.74</t>
-  </si>
-  <si>
-    <t>34.228.155.29</t>
-  </si>
-  <si>
-    <t>3.208.12.191</t>
-  </si>
-  <si>
-    <t>13.220.50.93</t>
-  </si>
-  <si>
-    <t>100.26.111.168</t>
-  </si>
-  <si>
-    <t>18.208.220.175</t>
-  </si>
-  <si>
-    <t>34.224.93.22</t>
-  </si>
-  <si>
-    <t>54.227.96.203</t>
-  </si>
-  <si>
-    <t>23.20.122.36</t>
-  </si>
-  <si>
-    <t>3.91.66.211</t>
-  </si>
-  <si>
-    <t>3.94.115.94</t>
-  </si>
-  <si>
-    <t>34.234.63.205</t>
-  </si>
-  <si>
-    <t>54.90.72.181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.167.22.31  </t>
-  </si>
-  <si>
     <t>IP1</t>
   </si>
   <si>
@@ -251,6 +179,117 @@
   </si>
   <si>
     <t>ubuntu</t>
+  </si>
+  <si>
+    <t>54.167.4.16</t>
+  </si>
+  <si>
+    <t>98.91.18.148</t>
+  </si>
+  <si>
+    <t>44.222.199.240</t>
+  </si>
+  <si>
+    <t>54.242.87.139</t>
+  </si>
+  <si>
+    <t>23.23.38.212</t>
+  </si>
+  <si>
+    <t>52.23.158.12</t>
+  </si>
+  <si>
+    <t>13.222.175.186</t>
+  </si>
+  <si>
+    <t>54.210.132.16</t>
+  </si>
+  <si>
+    <t>54.87.220.154</t>
+  </si>
+  <si>
+    <t>34.224.40.166</t>
+  </si>
+  <si>
+    <t>23.22.133.70</t>
+  </si>
+  <si>
+    <t>23.20.137.133</t>
+  </si>
+  <si>
+    <t>54.90.202.68</t>
+  </si>
+  <si>
+    <t>18.234.65.11</t>
+  </si>
+  <si>
+    <t>34.228.195.129</t>
+  </si>
+  <si>
+    <t>34.227.225.224</t>
+  </si>
+  <si>
+    <t>54.209.249.58</t>
+  </si>
+  <si>
+    <t>13.221.126.39</t>
+  </si>
+  <si>
+    <t>54.87.32.229</t>
+  </si>
+  <si>
+    <t>54.242.46.158</t>
+  </si>
+  <si>
+    <t>3.95.220.157</t>
+  </si>
+  <si>
+    <t>3.82.37.37</t>
+  </si>
+  <si>
+    <t>34.229.90.9</t>
+  </si>
+  <si>
+    <t>54.91.79.5</t>
+  </si>
+  <si>
+    <t>54.159.68.216</t>
+  </si>
+  <si>
+    <t>3.80.186.244</t>
+  </si>
+  <si>
+    <t>54.221.66.63</t>
+  </si>
+  <si>
+    <t>184.72.209.116</t>
+  </si>
+  <si>
+    <t>98.84.174.181</t>
+  </si>
+  <si>
+    <t>54.82.99.218</t>
+  </si>
+  <si>
+    <t>3.80.32.155</t>
+  </si>
+  <si>
+    <t>3.82.52.45</t>
+  </si>
+  <si>
+    <t>184.72.209.49</t>
+  </si>
+  <si>
+    <t>54.82.67.219</t>
+  </si>
+  <si>
+    <t>54.242.131.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.27.231.78  </t>
+  </si>
+  <si>
+    <t>IP3</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
-  <dimension ref="B8:I23"/>
+  <dimension ref="B8:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,17 +1344,17 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
@@ -1328,16 +1367,19 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="30" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
@@ -1350,16 +1392,19 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
@@ -1372,16 +1417,19 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>10</v>
       </c>
@@ -1394,16 +1442,19 @@
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
@@ -1416,16 +1467,19 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
@@ -1438,16 +1492,19 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
@@ -1460,16 +1517,19 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
@@ -1482,16 +1542,19 @@
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
@@ -1504,16 +1567,19 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
@@ -1526,16 +1592,19 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
@@ -1548,16 +1617,19 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -1570,16 +1642,19 @@
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
@@ -1592,13 +1667,16 @@
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEADD5-831A-48FD-8E17-139E8E093E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B17BC-630C-4B3F-88F4-2E6542FB91D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,115 +181,115 @@
     <t>ubuntu</t>
   </si>
   <si>
-    <t>54.167.4.16</t>
-  </si>
-  <si>
-    <t>98.91.18.148</t>
-  </si>
-  <si>
-    <t>44.222.199.240</t>
-  </si>
-  <si>
-    <t>54.242.87.139</t>
-  </si>
-  <si>
-    <t>23.23.38.212</t>
-  </si>
-  <si>
-    <t>52.23.158.12</t>
-  </si>
-  <si>
-    <t>13.222.175.186</t>
-  </si>
-  <si>
-    <t>54.210.132.16</t>
-  </si>
-  <si>
-    <t>54.87.220.154</t>
-  </si>
-  <si>
-    <t>34.224.40.166</t>
-  </si>
-  <si>
-    <t>23.22.133.70</t>
-  </si>
-  <si>
-    <t>23.20.137.133</t>
-  </si>
-  <si>
-    <t>54.90.202.68</t>
-  </si>
-  <si>
-    <t>18.234.65.11</t>
-  </si>
-  <si>
-    <t>34.228.195.129</t>
-  </si>
-  <si>
-    <t>34.227.225.224</t>
-  </si>
-  <si>
-    <t>54.209.249.58</t>
-  </si>
-  <si>
-    <t>13.221.126.39</t>
-  </si>
-  <si>
-    <t>54.87.32.229</t>
-  </si>
-  <si>
-    <t>54.242.46.158</t>
-  </si>
-  <si>
-    <t>3.95.220.157</t>
-  </si>
-  <si>
-    <t>3.82.37.37</t>
-  </si>
-  <si>
-    <t>34.229.90.9</t>
-  </si>
-  <si>
-    <t>54.91.79.5</t>
-  </si>
-  <si>
-    <t>54.159.68.216</t>
-  </si>
-  <si>
-    <t>3.80.186.244</t>
-  </si>
-  <si>
-    <t>54.221.66.63</t>
-  </si>
-  <si>
-    <t>184.72.209.116</t>
-  </si>
-  <si>
-    <t>98.84.174.181</t>
-  </si>
-  <si>
-    <t>54.82.99.218</t>
-  </si>
-  <si>
-    <t>3.80.32.155</t>
-  </si>
-  <si>
-    <t>3.82.52.45</t>
-  </si>
-  <si>
-    <t>184.72.209.49</t>
-  </si>
-  <si>
-    <t>54.82.67.219</t>
-  </si>
-  <si>
-    <t>54.242.131.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.27.231.78  </t>
-  </si>
-  <si>
     <t>IP3</t>
+  </si>
+  <si>
+    <t>13.220.180.173</t>
+  </si>
+  <si>
+    <t>54.89.198.128</t>
+  </si>
+  <si>
+    <t>54.82.101.6</t>
+  </si>
+  <si>
+    <t>18.234.196.1</t>
+  </si>
+  <si>
+    <t>13.220.184.238</t>
+  </si>
+  <si>
+    <t>50.19.204.25</t>
+  </si>
+  <si>
+    <t>52.87.173.45</t>
+  </si>
+  <si>
+    <t>54.163.196.77</t>
+  </si>
+  <si>
+    <t>54.91.61.41</t>
+  </si>
+  <si>
+    <t>3.89.164.96</t>
+  </si>
+  <si>
+    <t>54.147.34.118</t>
+  </si>
+  <si>
+    <t>100.27.221.50</t>
+  </si>
+  <si>
+    <t>54.204.76.15</t>
+  </si>
+  <si>
+    <t>54.236.108.182</t>
+  </si>
+  <si>
+    <t>54.82.137.132</t>
+  </si>
+  <si>
+    <t>100.27.229.113</t>
+  </si>
+  <si>
+    <t>54.234.218.175</t>
+  </si>
+  <si>
+    <t>3.93.167.22</t>
+  </si>
+  <si>
+    <t>54.163.60.215</t>
+  </si>
+  <si>
+    <t>54.90.144.173</t>
+  </si>
+  <si>
+    <t>18.212.225.159</t>
+  </si>
+  <si>
+    <t>98.81.173.202</t>
+  </si>
+  <si>
+    <t>54.152.29.29</t>
+  </si>
+  <si>
+    <t>54.242.123.209</t>
+  </si>
+  <si>
+    <t>54.174.219.9</t>
+  </si>
+  <si>
+    <t>54.91.76.27</t>
+  </si>
+  <si>
+    <t>54.197.31.250</t>
+  </si>
+  <si>
+    <t>54.85.63.254</t>
+  </si>
+  <si>
+    <t>54.147.170.137</t>
+  </si>
+  <si>
+    <t>54.209.171.197</t>
+  </si>
+  <si>
+    <t>54.221.15.136</t>
+  </si>
+  <si>
+    <t>54.160.175.5</t>
+  </si>
+  <si>
+    <t>3.88.1.44</t>
+  </si>
+  <si>
+    <t>3.85.30.65</t>
+  </si>
+  <si>
+    <t>54.198.176.19</t>
+  </si>
+  <si>
+    <t>54.90.153.198</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
   <dimension ref="B8:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,6 +1347,7 @@
     <col min="7" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -1373,7 +1374,7 @@
         <v>49</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>32</v>
@@ -1392,13 +1393,13 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>50</v>
@@ -1417,13 +1418,13 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>50</v>
@@ -1442,13 +1443,13 @@
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>50</v>
@@ -1467,13 +1468,13 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>50</v>
@@ -1492,13 +1493,13 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>50</v>
@@ -1517,13 +1518,13 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J17" s="32" t="s">
         <v>50</v>
@@ -1542,13 +1543,13 @@
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>50</v>
@@ -1567,13 +1568,13 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>50</v>
@@ -1592,13 +1593,13 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>50</v>
@@ -1617,13 +1618,13 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>50</v>
@@ -1642,13 +1643,13 @@
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>50</v>
@@ -1667,13 +1668,13 @@
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>50</v>

--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B17BC-630C-4B3F-88F4-2E6542FB91D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A4F76-E12C-40EF-8244-4AD79C272831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
   <dimension ref="B8:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48:M50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A4F76-E12C-40EF-8244-4AD79C272831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B03056-C686-4A03-804D-9562AABC203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>Start Date</t>
   </si>
@@ -184,112 +184,151 @@
     <t>IP3</t>
   </si>
   <si>
-    <t>13.220.180.173</t>
-  </si>
-  <si>
-    <t>54.89.198.128</t>
-  </si>
-  <si>
-    <t>54.82.101.6</t>
-  </si>
-  <si>
-    <t>18.234.196.1</t>
-  </si>
-  <si>
-    <t>13.220.184.238</t>
-  </si>
-  <si>
-    <t>50.19.204.25</t>
-  </si>
-  <si>
-    <t>52.87.173.45</t>
-  </si>
-  <si>
-    <t>54.163.196.77</t>
-  </si>
-  <si>
-    <t>54.91.61.41</t>
-  </si>
-  <si>
-    <t>3.89.164.96</t>
-  </si>
-  <si>
-    <t>54.147.34.118</t>
-  </si>
-  <si>
-    <t>100.27.221.50</t>
-  </si>
-  <si>
-    <t>54.204.76.15</t>
-  </si>
-  <si>
-    <t>54.236.108.182</t>
-  </si>
-  <si>
-    <t>54.82.137.132</t>
-  </si>
-  <si>
-    <t>100.27.229.113</t>
-  </si>
-  <si>
-    <t>54.234.218.175</t>
-  </si>
-  <si>
-    <t>3.93.167.22</t>
-  </si>
-  <si>
-    <t>54.163.60.215</t>
-  </si>
-  <si>
-    <t>54.90.144.173</t>
-  </si>
-  <si>
-    <t>18.212.225.159</t>
-  </si>
-  <si>
-    <t>98.81.173.202</t>
-  </si>
-  <si>
-    <t>54.152.29.29</t>
-  </si>
-  <si>
-    <t>54.242.123.209</t>
-  </si>
-  <si>
-    <t>54.174.219.9</t>
-  </si>
-  <si>
-    <t>54.91.76.27</t>
-  </si>
-  <si>
-    <t>54.197.31.250</t>
-  </si>
-  <si>
-    <t>54.85.63.254</t>
-  </si>
-  <si>
-    <t>54.147.170.137</t>
-  </si>
-  <si>
-    <t>54.209.171.197</t>
-  </si>
-  <si>
-    <t>54.221.15.136</t>
-  </si>
-  <si>
-    <t>54.160.175.5</t>
-  </si>
-  <si>
-    <t>3.88.1.44</t>
-  </si>
-  <si>
-    <t>3.85.30.65</t>
-  </si>
-  <si>
-    <t>54.198.176.19</t>
-  </si>
-  <si>
-    <t>54.90.153.198</t>
+    <t>IP4</t>
+  </si>
+  <si>
+    <t>18.213.4.131</t>
+  </si>
+  <si>
+    <t>54.209.49.174</t>
+  </si>
+  <si>
+    <t>34.224.31.244</t>
+  </si>
+  <si>
+    <t>54.173.161.105</t>
+  </si>
+  <si>
+    <t>3.80.154.255</t>
+  </si>
+  <si>
+    <t>23.22.85.113</t>
+  </si>
+  <si>
+    <t>44.222.223.68</t>
+  </si>
+  <si>
+    <t>54.242.222.98</t>
+  </si>
+  <si>
+    <t>35.172.200.164</t>
+  </si>
+  <si>
+    <t>34.228.38.166</t>
+  </si>
+  <si>
+    <t>54.227.81.193</t>
+  </si>
+  <si>
+    <t>98.84.112.72</t>
+  </si>
+  <si>
+    <t>18.212.79.0</t>
+  </si>
+  <si>
+    <t>54.88.120.192</t>
+  </si>
+  <si>
+    <t>107.22.128.7</t>
+  </si>
+  <si>
+    <t>34.227.61.191</t>
+  </si>
+  <si>
+    <t>34.229.205.210</t>
+  </si>
+  <si>
+    <t>18.212.218.244</t>
+  </si>
+  <si>
+    <t>23.22.204.73</t>
+  </si>
+  <si>
+    <t>13.222.189.18</t>
+  </si>
+  <si>
+    <t>107.21.154.157</t>
+  </si>
+  <si>
+    <t>98.90.203.234</t>
+  </si>
+  <si>
+    <t>54.234.130.12</t>
+  </si>
+  <si>
+    <t>54.160.130.61</t>
+  </si>
+  <si>
+    <t>18.209.21.143</t>
+  </si>
+  <si>
+    <t>34.201.71.146</t>
+  </si>
+  <si>
+    <t>34.230.92.173</t>
+  </si>
+  <si>
+    <t>18.209.56.133</t>
+  </si>
+  <si>
+    <t>34.229.83.188</t>
+  </si>
+  <si>
+    <t>54.242.147.73</t>
+  </si>
+  <si>
+    <t>18.205.246.4</t>
+  </si>
+  <si>
+    <t>34.229.133.120</t>
+  </si>
+  <si>
+    <t>18.232.140.64</t>
+  </si>
+  <si>
+    <t>13.217.200.186</t>
+  </si>
+  <si>
+    <t>3.85.3.127</t>
+  </si>
+  <si>
+    <t>54.89.135.187</t>
+  </si>
+  <si>
+    <t>54.209.1.230</t>
+  </si>
+  <si>
+    <t>52.91.97.25</t>
+  </si>
+  <si>
+    <t>98.88.83.48</t>
+  </si>
+  <si>
+    <t>98.91.24.53</t>
+  </si>
+  <si>
+    <t>54.227.117.158</t>
+  </si>
+  <si>
+    <t>54.163.60.34</t>
+  </si>
+  <si>
+    <t>54.83.93.22</t>
+  </si>
+  <si>
+    <t>54.90.123.127</t>
+  </si>
+  <si>
+    <t>184.73.31.99</t>
+  </si>
+  <si>
+    <t>34.226.197.100</t>
+  </si>
+  <si>
+    <t>13.222.192.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80.34.244  </t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
-  <dimension ref="B8:J23"/>
+  <dimension ref="B8:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,17 +1384,18 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
@@ -1377,10 +1417,13 @@
         <v>51</v>
       </c>
       <c r="J11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1436,7 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>64</v>
@@ -1402,10 +1445,13 @@
         <v>76</v>
       </c>
       <c r="J12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
@@ -1427,10 +1473,13 @@
         <v>77</v>
       </c>
       <c r="J13" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>10</v>
       </c>
@@ -1452,10 +1501,13 @@
         <v>78</v>
       </c>
       <c r="J14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
@@ -1477,10 +1529,13 @@
         <v>79</v>
       </c>
       <c r="J15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
@@ -1502,10 +1557,13 @@
         <v>80</v>
       </c>
       <c r="J16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
@@ -1527,10 +1585,13 @@
         <v>81</v>
       </c>
       <c r="J17" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
@@ -1552,10 +1613,13 @@
         <v>82</v>
       </c>
       <c r="J18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
@@ -1577,10 +1641,13 @@
         <v>83</v>
       </c>
       <c r="J19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
@@ -1602,10 +1669,13 @@
         <v>84</v>
       </c>
       <c r="J20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
@@ -1627,10 +1697,13 @@
         <v>85</v>
       </c>
       <c r="J21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -1652,10 +1725,13 @@
         <v>86</v>
       </c>
       <c r="J22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
@@ -1677,6 +1753,9 @@
         <v>87</v>
       </c>
       <c r="J23" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="32" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B03056-C686-4A03-804D-9562AABC203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E22034-AAE2-456C-A0B7-2B74CF6CD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
   <si>
     <t>Start Date</t>
   </si>
@@ -329,6 +329,144 @@
   </si>
   <si>
     <t xml:space="preserve">3.80.34.244  </t>
+  </si>
+  <si>
+    <t>54.146.164.8</t>
+  </si>
+  <si>
+    <t>52.91.247.62</t>
+  </si>
+  <si>
+    <t>54.226.97.112</t>
+  </si>
+  <si>
+    <t>3.89.209.190</t>
+  </si>
+  <si>
+    <t>3.208.12.53</t>
+  </si>
+  <si>
+    <t>3.80.109.140</t>
+  </si>
+  <si>
+    <t>54.84.159.217</t>
+  </si>
+  <si>
+    <t>3.90.0.111</t>
+  </si>
+  <si>
+    <t>174.129.63.225</t>
+  </si>
+  <si>
+    <t>54.144.99.18</t>
+  </si>
+  <si>
+    <t>54.167.97.7</t>
+  </si>
+  <si>
+    <t>54.196.154.5</t>
+  </si>
+  <si>
+    <t>44.222.224.12</t>
+  </si>
+  <si>
+    <t>52.206.202.210</t>
+  </si>
+  <si>
+    <t>52.23.165.81</t>
+  </si>
+  <si>
+    <t>13.220.51.194</t>
+  </si>
+  <si>
+    <t>52.90.3.76</t>
+  </si>
+  <si>
+    <t>54.146.229.186</t>
+  </si>
+  <si>
+    <t>3.94.196.5</t>
+  </si>
+  <si>
+    <t>3.88.167.22</t>
+  </si>
+  <si>
+    <t>3.85.53.151</t>
+  </si>
+  <si>
+    <t>3.87.93.53</t>
+  </si>
+  <si>
+    <t>34.203.10.160</t>
+  </si>
+  <si>
+    <t>107.21.149.138</t>
+  </si>
+  <si>
+    <t>52.73.60.226</t>
+  </si>
+  <si>
+    <t>54.226.56.168</t>
+  </si>
+  <si>
+    <t>18.212.75.43</t>
+  </si>
+  <si>
+    <t>18.209.22.69</t>
+  </si>
+  <si>
+    <t>54.226.226.207</t>
+  </si>
+  <si>
+    <t>34.229.141.50</t>
+  </si>
+  <si>
+    <t>54.165.5.30</t>
+  </si>
+  <si>
+    <t>54.83.113.91</t>
+  </si>
+  <si>
+    <t>3.85.34.249</t>
+  </si>
+  <si>
+    <t>54.198.164.123</t>
+  </si>
+  <si>
+    <t>3.91.76.48</t>
+  </si>
+  <si>
+    <t>107.22.40.234</t>
+  </si>
+  <si>
+    <t>54.87.18.129</t>
+  </si>
+  <si>
+    <t>3.89.104.207</t>
+  </si>
+  <si>
+    <t>52.91.60.82</t>
+  </si>
+  <si>
+    <t>54.160.188.242</t>
+  </si>
+  <si>
+    <t>100.26.29.163</t>
+  </si>
+  <si>
+    <t>54.242.233.155</t>
+  </si>
+  <si>
+    <t>IP5</t>
+  </si>
+  <si>
+    <t>IP6</t>
+  </si>
+  <si>
+    <t>IP7</t>
+  </si>
+  <si>
+    <t>54.234.135.47</t>
   </si>
 </sst>
 </file>
@@ -796,7 +934,108 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1372,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
-  <dimension ref="B8:K23"/>
+  <dimension ref="B8:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,18 +1623,16 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
@@ -1420,10 +1657,19 @@
         <v>52</v>
       </c>
       <c r="K11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
@@ -1447,11 +1693,20 @@
       <c r="J12" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
@@ -1475,11 +1730,20 @@
       <c r="J13" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>10</v>
       </c>
@@ -1503,11 +1767,20 @@
       <c r="J14" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
@@ -1531,11 +1804,20 @@
       <c r="J15" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
@@ -1560,10 +1842,19 @@
         <v>92</v>
       </c>
       <c r="K16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
@@ -1588,10 +1879,19 @@
         <v>93</v>
       </c>
       <c r="K17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
@@ -1616,10 +1916,19 @@
         <v>94</v>
       </c>
       <c r="K18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
@@ -1644,10 +1953,19 @@
         <v>95</v>
       </c>
       <c r="K19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
@@ -1672,10 +1990,19 @@
         <v>96</v>
       </c>
       <c r="K20" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
@@ -1700,10 +2027,19 @@
         <v>97</v>
       </c>
       <c r="K21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -1728,10 +2064,19 @@
         <v>98</v>
       </c>
       <c r="K22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
@@ -1756,10 +2101,64 @@
         <v>99</v>
       </c>
       <c r="K23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="32" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G16:M23 G12:J15 L12:M15">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:M31 G12:J15 L12:M15">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:M31 H32:M32">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{09CEF2D2-B14C-4818-888D-064D54CF8865}"/>
   </hyperlinks>

--- a/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
+++ b/Attendance Roster_Splunk Certified Architect_October 06-10_VC00529848.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E22034-AAE2-456C-A0B7-2B74CF6CD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236AE11-F16F-4840-BCC0-911E355DC286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="148">
   <si>
     <t>Start Date</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>54.234.135.47</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -934,67 +937,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1313,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,11 +1392,21 @@
       <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
@@ -1462,11 +1415,21 @@
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
@@ -1475,11 +1438,21 @@
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
@@ -1488,11 +1461,21 @@
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
@@ -1501,11 +1484,21 @@
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
@@ -1514,11 +1507,21 @@
       <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
@@ -1527,11 +1530,21 @@
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
@@ -1540,11 +1553,21 @@
       <c r="B19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -1553,11 +1576,21 @@
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -1566,11 +1599,21 @@
       <c r="B21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
@@ -1579,11 +1622,21 @@
       <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
@@ -1592,11 +1645,21 @@
       <c r="B23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1613,7 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDF7D1-DA1C-4502-A043-BA17F7696C93}">
   <dimension ref="B8:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -2149,15 +2212,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G12:M31 H32:M32">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G16:M23 G12:J15 L12:M15">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:M31 G12:J15 L12:M15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:M31 H32:M32">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{09CEF2D2-B14C-4818-888D-064D54CF8865}"/>
